--- a/data_11.xlsx
+++ b/data_11.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5.51944894276792</v>
+        <v>5.51977392721915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1015484119256304</v>
+        <v>0.10287617839560671</v>
       </c>
       <c r="D2" t="n">
-        <v>5.4142515001524885</v>
+        <v>5.455185511422166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21289779469426176</v>
+        <v>0.21459634393108862</v>
       </c>
       <c r="F2" t="n">
         <v>0.04930730460211238</v>
@@ -132,7 +132,7 @@
         <v>8.030377277237207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25078703333328495</v>
+        <v>0.2504164105658652</v>
       </c>
       <c r="D3" t="n">
         <v>8.940421535691826</v>
@@ -152,7 +152,7 @@
         <v>8.571536560921249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6476645547410846</v>
+        <v>0.646707411038528</v>
       </c>
       <c r="D4" t="n">
         <v>10.553255032914656</v>
